--- a/6_Best_Product/files/3_2_danawa_data_final.xlsx
+++ b/6_Best_Product/files/3_2_danawa_data_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="308">
   <si>
     <t>카테고리</t>
   </si>
@@ -40,181 +40,220 @@
     <t>샤오미</t>
   </si>
   <si>
+    <t>원더스리빙</t>
+  </si>
+  <si>
     <t>LG전자</t>
   </si>
   <si>
+    <t>델로라</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>다이슨</t>
+  </si>
+  <si>
+    <t>일렉트로룩스</t>
+  </si>
+  <si>
     <t>DIBEA</t>
   </si>
   <si>
-    <t>다이슨</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>일렉트로룩스</t>
+    <t>무궁화전자</t>
+  </si>
+  <si>
+    <t>아이룸</t>
+  </si>
+  <si>
+    <t>니코</t>
+  </si>
+  <si>
+    <t>ABKO</t>
+  </si>
+  <si>
+    <t>보쉬</t>
+  </si>
+  <si>
+    <t>보만</t>
+  </si>
+  <si>
+    <t>블랙앤데커</t>
+  </si>
+  <si>
+    <t>테팔</t>
+  </si>
+  <si>
+    <t>EUP</t>
+  </si>
+  <si>
+    <t>JDL</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>툴앤툴</t>
+  </si>
+  <si>
+    <t>신일산업</t>
+  </si>
+  <si>
+    <t>이나프</t>
+  </si>
+  <si>
+    <t>에이스전자</t>
+  </si>
+  <si>
+    <t>윈드피아</t>
+  </si>
+  <si>
+    <t>홍진테크</t>
+  </si>
+  <si>
+    <t>일럭스고</t>
+  </si>
+  <si>
+    <t>리버티</t>
+  </si>
+  <si>
+    <t>플러스마이너스제로</t>
+  </si>
+  <si>
+    <t>모온</t>
   </si>
   <si>
     <t>캐치웰</t>
   </si>
   <si>
-    <t>롯데</t>
-  </si>
-  <si>
-    <t>아이리스</t>
+    <t>제로홈</t>
+  </si>
+  <si>
+    <t>빌톤</t>
+  </si>
+  <si>
+    <t>유니맥스</t>
+  </si>
+  <si>
+    <t>필립스</t>
+  </si>
+  <si>
+    <t>아낙</t>
   </si>
   <si>
     <t>대웅모닝컴</t>
   </si>
   <si>
-    <t>블랙앤데커</t>
-  </si>
-  <si>
-    <t>아이룸</t>
-  </si>
-  <si>
-    <t>EUP</t>
-  </si>
-  <si>
-    <t>무궁화전자</t>
-  </si>
-  <si>
-    <t>보쉬</t>
-  </si>
-  <si>
-    <t>신일산업</t>
-  </si>
-  <si>
-    <t>클릭</t>
+    <t>아이코넬</t>
+  </si>
+  <si>
+    <t>듀플렉스</t>
   </si>
   <si>
     <t>레이캅</t>
   </si>
   <si>
-    <t>필립스</t>
-  </si>
-  <si>
-    <t>듀플렉스</t>
-  </si>
-  <si>
-    <t>테팔</t>
-  </si>
-  <si>
-    <t>이나프</t>
-  </si>
-  <si>
-    <t>유니맥스</t>
-  </si>
-  <si>
-    <t>리버티</t>
-  </si>
-  <si>
-    <t>하트만</t>
-  </si>
-  <si>
-    <t>벡셀</t>
-  </si>
-  <si>
-    <t>제로홈</t>
-  </si>
-  <si>
-    <t>툴앤툴</t>
-  </si>
-  <si>
-    <t>보만</t>
-  </si>
-  <si>
-    <t>포시엠</t>
-  </si>
-  <si>
-    <t>ABKO</t>
-  </si>
-  <si>
-    <t>강블리</t>
+    <t>라이프썸</t>
+  </si>
+  <si>
+    <t>대우어플라이언스</t>
+  </si>
+  <si>
+    <t>마끼다</t>
+  </si>
+  <si>
+    <t>이스타</t>
   </si>
   <si>
     <t>스위스밀리터리</t>
   </si>
   <si>
-    <t>롯데전자</t>
-  </si>
-  <si>
-    <t>마끼다</t>
-  </si>
-  <si>
-    <t>바치</t>
-  </si>
-  <si>
-    <t>에이스전자</t>
-  </si>
-  <si>
-    <t>노블</t>
-  </si>
-  <si>
-    <t>비바</t>
-  </si>
-  <si>
-    <t>일럭스고</t>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>SJ</t>
+  </si>
+  <si>
+    <t>BSW</t>
+  </si>
+  <si>
+    <t>ZIGLINT</t>
+  </si>
+  <si>
+    <t>샤크</t>
+  </si>
+  <si>
+    <t>핸즈</t>
+  </si>
+  <si>
+    <t>LOFANS</t>
+  </si>
+  <si>
+    <t>롯데하이마트</t>
+  </si>
+  <si>
+    <t>한경희생활과학</t>
+  </si>
+  <si>
+    <t>보국전자</t>
+  </si>
+  <si>
+    <t>쿠비녹스</t>
+  </si>
+  <si>
+    <t>지웰</t>
+  </si>
+  <si>
+    <t>수인</t>
+  </si>
+  <si>
+    <t>스윙</t>
   </si>
   <si>
     <t>신일</t>
   </si>
   <si>
-    <t>홍진테크</t>
-  </si>
-  <si>
-    <t>니코</t>
-  </si>
-  <si>
-    <t>미켈란젤로</t>
-  </si>
-  <si>
-    <t>대우어플라이언스</t>
-  </si>
-  <si>
-    <t>아토만</t>
-  </si>
-  <si>
-    <t>BDC</t>
-  </si>
-  <si>
-    <t>모온</t>
-  </si>
-  <si>
-    <t>비엔필레</t>
-  </si>
-  <si>
-    <t>좋은생활지웰</t>
-  </si>
-  <si>
-    <t>쿠첸</t>
-  </si>
-  <si>
-    <t>이노크아든</t>
-  </si>
-  <si>
-    <t>한샘</t>
-  </si>
-  <si>
-    <t>루시아</t>
-  </si>
-  <si>
-    <t>던디</t>
-  </si>
-  <si>
-    <t>보국전자</t>
-  </si>
-  <si>
-    <t>라헨느</t>
+    <t>보랄</t>
+  </si>
+  <si>
+    <t>드리미 V10</t>
+  </si>
+  <si>
+    <t>다이나킹 Z9</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A978</t>
+  </si>
+  <si>
+    <t>V11 파워 300W</t>
   </si>
   <si>
     <t>드리미 V9</t>
   </si>
   <si>
+    <t>제트 VS20R9078S2</t>
+  </si>
+  <si>
+    <t>V11 220 에어와트 CF+</t>
+  </si>
+  <si>
+    <t>ZB3302AK</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A938</t>
+  </si>
+  <si>
+    <t>V10 카본파이버</t>
+  </si>
+  <si>
     <t>코드제로 A9 A958</t>
   </si>
   <si>
-    <t>코드제로 A9 A978</t>
+    <t>제트 VS20R9043SA</t>
+  </si>
+  <si>
+    <t>V10 플러피</t>
   </si>
   <si>
     <t>F20 맥스</t>
@@ -223,730 +262,682 @@
     <t>코드제로 A9 A951</t>
   </si>
   <si>
+    <t>V10 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>제트 VS20R9078S3</t>
+  </si>
+  <si>
+    <t>바로바로 MC-B250</t>
+  </si>
+  <si>
+    <t>M500 퀀텀</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A947</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A948</t>
+  </si>
+  <si>
+    <t>V7 플러피</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3414AK</t>
+  </si>
+  <si>
+    <t>V8 플러피</t>
+  </si>
+  <si>
+    <t>D-10</t>
+  </si>
+  <si>
+    <t>DW200</t>
+  </si>
+  <si>
+    <t>코드제로 S86</t>
+  </si>
+  <si>
+    <t>NKC-T75</t>
+  </si>
+  <si>
+    <t>V11 플러피</t>
+  </si>
+  <si>
+    <t>D18</t>
+  </si>
+  <si>
+    <t>뉴파워건 130</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3BW</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3EM</t>
+  </si>
+  <si>
+    <t>오엘라 네오스핀 OBC-AW09WH</t>
+  </si>
+  <si>
+    <t>에르고라피도 프로 플러스 ZB3113AK</t>
+  </si>
+  <si>
+    <t>코드제로 터보2.0 S87GMW</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-2OG</t>
+  </si>
+  <si>
+    <t>제트 VS19R1004BF</t>
+  </si>
+  <si>
+    <t>M500 프로</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3104</t>
+  </si>
+  <si>
+    <t>VC-PS86</t>
+  </si>
+  <si>
+    <t>ZB6114</t>
+  </si>
+  <si>
+    <t>F20 프로</t>
+  </si>
+  <si>
+    <t>에르고라피도 플러스 ZB3105AK</t>
+  </si>
+  <si>
+    <t>에이스 맥스</t>
+  </si>
+  <si>
+    <t>제트 VS15R8543S1</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A968</t>
+  </si>
+  <si>
+    <t>V11 컴플리트 엑스트라</t>
+  </si>
+  <si>
+    <t>제트 VS15R8577S5</t>
+  </si>
+  <si>
+    <t>VC-H71</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3105</t>
+  </si>
+  <si>
+    <t>V10 모터헤드</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60M6010KG</t>
+  </si>
+  <si>
+    <t>GAS18V-1</t>
+  </si>
+  <si>
+    <t>NEW F7 플러스</t>
+  </si>
+  <si>
+    <t>VC-H22</t>
+  </si>
+  <si>
+    <t>VC7211</t>
+  </si>
+  <si>
+    <t>PV1820CEXT</t>
+  </si>
+  <si>
+    <t>PDK-12000N</t>
+  </si>
+  <si>
+    <t>에어포스 360 TY9086</t>
+  </si>
+  <si>
+    <t>AST-009</t>
+  </si>
+  <si>
+    <t>코드제로 S74R</t>
+  </si>
+  <si>
+    <t>GAS10.8V-LI</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트</t>
+  </si>
+  <si>
+    <t>로이드미 F8</t>
+  </si>
+  <si>
+    <t>PDK-18000P</t>
+  </si>
+  <si>
+    <t>V8 카본파이버</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A950</t>
+  </si>
+  <si>
+    <t>V7 플러피 플러스</t>
+  </si>
+  <si>
+    <t>VH806</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5021</t>
+  </si>
+  <si>
+    <t>파워건 150</t>
+  </si>
+  <si>
+    <t>뉴파워건 150</t>
+  </si>
+  <si>
+    <t>tech 타이푼 DV-889DC-X</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A960</t>
+  </si>
+  <si>
+    <t>L-277</t>
+  </si>
+  <si>
+    <t>제트 VS20R9074S3</t>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3111</t>
+  </si>
+  <si>
+    <t>V8 플러피 프로</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A930</t>
+  </si>
+  <si>
+    <t>V8 플러피 헤파</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>V008 프로</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 프로</t>
+  </si>
+  <si>
+    <t>코드제로 A9 A940</t>
+  </si>
+  <si>
+    <t>울트라파워 ZB5022</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 플러스</t>
+  </si>
+  <si>
+    <t>V6 코드프리 플러스</t>
+  </si>
+  <si>
+    <t>V8 모터헤드 헤파</t>
+  </si>
+  <si>
+    <t>C19B</t>
+  </si>
+  <si>
+    <t>코드프리 P10</t>
+  </si>
+  <si>
+    <t>제트 VS20R9043QA</t>
+  </si>
+  <si>
+    <t>SVC-DC2200SK</t>
+  </si>
+  <si>
+    <t>SVC-C2025SJ</t>
+  </si>
+  <si>
     <t>V11 컴플리트</t>
   </si>
   <si>
-    <t>제트 VS20R9074S3</t>
-  </si>
-  <si>
-    <t>ZB3302AK</t>
-  </si>
-  <si>
-    <t>V10 카본파이버</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S3</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>D18</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 엑스트라</t>
-  </si>
-  <si>
-    <t>제트 VS20R9078S2</t>
-  </si>
-  <si>
-    <t>PDK-22000P</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A938</t>
-  </si>
-  <si>
-    <t>코드제로 S86</t>
-  </si>
-  <si>
-    <t>V7 플러피</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A947</t>
+    <t>제트 VS15R8548S5</t>
+  </si>
+  <si>
+    <t>V8 앱솔루트 헤파</t>
+  </si>
+  <si>
+    <t>GAS18V-LI</t>
+  </si>
+  <si>
+    <t>P20 MAX</t>
+  </si>
+  <si>
+    <t>ILVH-1000</t>
+  </si>
+  <si>
+    <t>AVG-TS8400B</t>
+  </si>
+  <si>
+    <t>WHS-100V</t>
+  </si>
+  <si>
+    <t>퓨어 Q9 PQ91-3OB</t>
+  </si>
+  <si>
+    <t>아토만 AT-VC2000</t>
+  </si>
+  <si>
+    <t>SVC-S4800SJ</t>
+  </si>
+  <si>
+    <t>V8 애니멀</t>
+  </si>
+  <si>
+    <t>SVC-1019L</t>
+  </si>
+  <si>
+    <t>LVC-1000</t>
+  </si>
+  <si>
+    <t>제트 VS20R9077Q3</t>
+  </si>
+  <si>
+    <t>V10 플러피 엑스트라</t>
+  </si>
+  <si>
+    <t>제트 VS20R9074S2</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-6XRF</t>
+  </si>
+  <si>
+    <t>파워건 150 스타워즈 에디션</t>
+  </si>
+  <si>
+    <t>V10 앱솔루트 엑스트라</t>
+  </si>
+  <si>
+    <t>ZB3311</t>
+  </si>
+  <si>
+    <t>V10 카본파이버 프로</t>
+  </si>
+  <si>
+    <t>에르고라피도 플러스 ZB3106AK</t>
+  </si>
+  <si>
+    <t>제트 VS20R9044SC</t>
+  </si>
+  <si>
+    <t>XJC-C030</t>
+  </si>
+  <si>
+    <t>D20 맥스</t>
   </si>
   <si>
     <t>드리미 V9P</t>
   </si>
   <si>
+    <t>V11 애니멀</t>
+  </si>
+  <si>
+    <t>오비큠</t>
+  </si>
+  <si>
+    <t>코드엑스</t>
+  </si>
+  <si>
+    <t>디어마 VC20S</t>
+  </si>
+  <si>
+    <t>V10 애니멀</t>
+  </si>
+  <si>
+    <t>X30</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>BTS-J1400</t>
+  </si>
+  <si>
+    <t>디어마 CM1900</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3411</t>
+  </si>
+  <si>
+    <t>NEW X10 플러스</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3423BO</t>
+  </si>
+  <si>
+    <t>미지아 1C SCWXCQ02ZHM</t>
+  </si>
+  <si>
+    <t>PV1820BK</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3426BL</t>
+  </si>
+  <si>
+    <t>ZB3301</t>
+  </si>
+  <si>
+    <t>UVC-1688</t>
+  </si>
+  <si>
+    <t>FC6152</t>
+  </si>
+  <si>
+    <t>ANA-1930</t>
+  </si>
+  <si>
+    <t>DWVC-DC1630WS</t>
+  </si>
+  <si>
+    <t>VC-K300W</t>
+  </si>
+  <si>
     <t>F20 울트라 맥스</t>
   </si>
   <si>
-    <t>에르고라피도 파워프로 ZB3423BO</t>
-  </si>
-  <si>
-    <t>DW200</t>
-  </si>
-  <si>
-    <t>PDK-12000N</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A948</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A940</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A950</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A960</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A930</t>
-  </si>
-  <si>
-    <t>에르고라피도 프로 플러스 ZB3113AK</t>
-  </si>
-  <si>
-    <t>V8 카본파이버</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A968</t>
-  </si>
-  <si>
-    <t>뉴파워건 130</t>
-  </si>
-  <si>
-    <t>V8 플러피 프로</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60M6010KG</t>
-  </si>
-  <si>
-    <t>VC-H22</t>
+    <t>에어포스 360 TY9037</t>
+  </si>
+  <si>
+    <t>VC7210</t>
+  </si>
+  <si>
+    <t>DP-485VC</t>
+  </si>
+  <si>
+    <t>RHC-500</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3323BO</t>
+  </si>
+  <si>
+    <t>V10 앱솔루트</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-6BWF</t>
+  </si>
+  <si>
+    <t>LFS-HA04</t>
+  </si>
+  <si>
+    <t>RS1</t>
+  </si>
+  <si>
+    <t>이지에 YE-01</t>
+  </si>
+  <si>
+    <t>에어포스360 에센셜</t>
+  </si>
+  <si>
+    <t>로이드미 넥스 XCQ06RM</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>D18 플러스</t>
+  </si>
+  <si>
+    <t>SVC-680G</t>
+  </si>
+  <si>
+    <t>ILVH-7500</t>
+  </si>
+  <si>
+    <t>V7 앱솔루트</t>
+  </si>
+  <si>
+    <t>RHC-300</t>
+  </si>
+  <si>
+    <t>PV1820C</t>
+  </si>
+  <si>
+    <t>AT-H12V</t>
+  </si>
+  <si>
+    <t>DEX-EV675</t>
+  </si>
+  <si>
+    <t>TSX-25000A</t>
+  </si>
+  <si>
+    <t>제트 VS20R9044SA</t>
+  </si>
+  <si>
+    <t>유니버셜백 18</t>
+  </si>
+  <si>
+    <t>파워스틱 VS03R6523J2</t>
+  </si>
+  <si>
+    <t>CX11</t>
+  </si>
+  <si>
+    <t>DCL182ZW</t>
+  </si>
+  <si>
+    <t>EST-VX100</t>
+  </si>
+  <si>
+    <t>에어포스360 TY9253</t>
+  </si>
+  <si>
+    <t>M-HIPOWER</t>
+  </si>
+  <si>
+    <t>UVC-1685A</t>
+  </si>
+  <si>
+    <t>AVG-LC9600BT</t>
+  </si>
+  <si>
+    <t>드리미 V9B</t>
+  </si>
+  <si>
+    <t>V-S300C</t>
+  </si>
+  <si>
+    <t>PD1400</t>
+  </si>
+  <si>
+    <t>RPC-300</t>
+  </si>
+  <si>
+    <t>VH-1600</t>
+  </si>
+  <si>
+    <t>SVC-1316R</t>
+  </si>
+  <si>
+    <t>롤링스턴 SVC-PEV660</t>
+  </si>
+  <si>
+    <t>에어포스360 플랙스프로 TY9471KS</t>
+  </si>
+  <si>
+    <t>V10 카본파이버 플러스</t>
+  </si>
+  <si>
+    <t>D008 프로</t>
+  </si>
+  <si>
+    <t>VC-PS85</t>
+  </si>
+  <si>
+    <t>에어슬림 SMA-BV2200</t>
+  </si>
+  <si>
+    <t>제트 VS15R8544S4</t>
+  </si>
+  <si>
+    <t>에어포스 라이트 TY6545KL</t>
+  </si>
+  <si>
+    <t>바로바로 MHC-770</t>
+  </si>
+  <si>
+    <t>TPV1820RAC</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60K6081KC</t>
+  </si>
+  <si>
+    <t>미니청소기</t>
+  </si>
+  <si>
+    <t>PV1020</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>파워스틱 VS60K6081KD</t>
+  </si>
+  <si>
+    <t>KOREA</t>
+  </si>
+  <si>
+    <t>RQ40</t>
+  </si>
+  <si>
+    <t>V6 플러피 헤파</t>
+  </si>
+  <si>
+    <t>BS-14048-VC</t>
+  </si>
+  <si>
+    <t>에어포스360 플랙스프로 TY9474</t>
+  </si>
+  <si>
+    <t>ALLNEW22000</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>EVO POWER PLUS</t>
+  </si>
+  <si>
+    <t>다이나킹 Z7</t>
   </si>
   <si>
     <t>CV6</t>
   </si>
   <si>
-    <t>NEW F7 플러스</t>
-  </si>
-  <si>
-    <t>V008 프로</t>
-  </si>
-  <si>
-    <t>M500 프로</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043SA</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트</t>
-  </si>
-  <si>
-    <t>L-277</t>
-  </si>
-  <si>
-    <t>V10 모터헤드</t>
-  </si>
-  <si>
-    <t>IC-SLDCP5</t>
-  </si>
-  <si>
-    <t>에이스 맥스</t>
-  </si>
-  <si>
-    <t>코드제로 터보2.0 S87GMW</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3426BL</t>
-  </si>
-  <si>
-    <t>DWVC-DC9180KP</t>
-  </si>
-  <si>
-    <t>C17</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A931</t>
-  </si>
-  <si>
-    <t>코드제로 S74R</t>
-  </si>
-  <si>
-    <t>뉴파워건 150</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>로이드미 F8</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3OB</t>
-  </si>
-  <si>
-    <t>TPD1810BGEXT</t>
-  </si>
-  <si>
-    <t>M-HIPOWER</t>
-  </si>
-  <si>
-    <t>AST-009</t>
-  </si>
-  <si>
-    <t>V7 플러피 플러스</t>
-  </si>
-  <si>
-    <t>V11 플러피</t>
-  </si>
-  <si>
-    <t>에르고라피도 플러스 ZB3105AK</t>
-  </si>
-  <si>
-    <t>X30</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 플러스</t>
-  </si>
-  <si>
-    <t>VH806</t>
-  </si>
-  <si>
-    <t>PV1820BK</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5022</t>
-  </si>
-  <si>
-    <t>VC-H71</t>
-  </si>
-  <si>
-    <t>울트라파워 ZB5021</t>
-  </si>
-  <si>
-    <t>파워건 150</t>
+    <t>블랙라벨 UVC-1819B</t>
+  </si>
+  <si>
+    <t>네오스틱 T1</t>
+  </si>
+  <si>
+    <t>롤링스턴 SVC-C1012WS</t>
+  </si>
+  <si>
+    <t>HVC-120LA</t>
   </si>
   <si>
     <t>퓨어 F9 PF91-5OGF</t>
   </si>
   <si>
-    <t>에르고라피도 ZB3111</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 플러스</t>
-  </si>
-  <si>
-    <t>V8 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>바로바로 MC-B250</t>
-  </si>
-  <si>
-    <t>V6 코드프리 플러스</t>
-  </si>
-  <si>
-    <t>V8 플러피 헤파</t>
-  </si>
-  <si>
-    <t>V8 모터헤드 헤파</t>
-  </si>
-  <si>
-    <t>NEW X10 플러스</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-2OG</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 엑스트라</t>
-  </si>
-  <si>
-    <t>드리미 V9B</t>
-  </si>
-  <si>
-    <t>DW300 프로</t>
-  </si>
-  <si>
-    <t>ZB6114</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3323BO</t>
-  </si>
-  <si>
-    <t>GAS18V-1</t>
-  </si>
-  <si>
-    <t>D20 MAX</t>
-  </si>
-  <si>
-    <t>SVC-S4800SJ</t>
-  </si>
-  <si>
-    <t>더스트 제로 EV-693</t>
-  </si>
-  <si>
-    <t>SVC-WK1000</t>
-  </si>
-  <si>
-    <t>D18 플러스</t>
-  </si>
-  <si>
-    <t>RHC-300</t>
-  </si>
-  <si>
-    <t>FC6152</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3BW</t>
-  </si>
-  <si>
-    <t>PV1820C</t>
-  </si>
-  <si>
-    <t>제트 VS20R9043QA</t>
-  </si>
-  <si>
-    <t>DP-485VC</t>
+    <t>TY9051</t>
+  </si>
+  <si>
+    <t>V11 프리미엄 컴플리트</t>
+  </si>
+  <si>
+    <t>퓨어 F9 PF91-5EBF</t>
+  </si>
+  <si>
+    <t>에르고라피도 파워프로 ZB3416AK</t>
+  </si>
+  <si>
+    <t>글래스 백</t>
+  </si>
+  <si>
+    <t>QX-408</t>
+  </si>
+  <si>
+    <t>CV8</t>
+  </si>
+  <si>
+    <t>하이메이드 HV-DW222W</t>
+  </si>
+  <si>
+    <t>VH-400WT</t>
+  </si>
+  <si>
+    <t>BKV-642VL</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3316AK</t>
+  </si>
+  <si>
+    <t>UMO-05V</t>
+  </si>
+  <si>
+    <t>CX-996VC</t>
+  </si>
+  <si>
+    <t>M500 터보</t>
+  </si>
+  <si>
+    <t>V7 트리거 프로</t>
+  </si>
+  <si>
+    <t>W20</t>
+  </si>
+  <si>
+    <t>코드프리 N10</t>
+  </si>
+  <si>
+    <t>에르고라피도 ZB3314AK</t>
+  </si>
+  <si>
+    <t>BS-1604-BC</t>
+  </si>
+  <si>
+    <t>ST-007+8040MT</t>
+  </si>
+  <si>
+    <t>SN-P1000VC</t>
+  </si>
+  <si>
+    <t>파워스윙 SWING-8000</t>
+  </si>
+  <si>
+    <t>더쎈 SVC-ECO350</t>
   </si>
   <si>
     <t>V7 모터헤드</t>
   </si>
   <si>
-    <t>제트 VS20R9044SA</t>
-  </si>
-  <si>
-    <t>제트 VS15R8548S5</t>
-  </si>
-  <si>
-    <t>PV1820CEXT</t>
-  </si>
-  <si>
-    <t>퓨어 Q9 PQ91-3EM</t>
-  </si>
-  <si>
-    <t>에어포스360 TY9253</t>
-  </si>
-  <si>
-    <t>ILVH-7000</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트</t>
-  </si>
-  <si>
-    <t>제트 VS20R9044SC</t>
-  </si>
-  <si>
-    <t>UVC-1685A</t>
-  </si>
-  <si>
-    <t>로이드미 넥스</t>
-  </si>
-  <si>
-    <t>LVC-1000</t>
-  </si>
-  <si>
-    <t>HVC-S8850BL</t>
-  </si>
-  <si>
-    <t>D20</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3414AK</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3105</t>
-  </si>
-  <si>
-    <t>디어마 VC50</t>
-  </si>
-  <si>
-    <t>BHV-3001S</t>
-  </si>
-  <si>
-    <t>ILVH-7500</t>
-  </si>
-  <si>
-    <t>M500 터보</t>
-  </si>
-  <si>
-    <t>라피도 ZB5106</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>CX-1</t>
-  </si>
-  <si>
-    <t>제트 VS20R9077Q3</t>
-  </si>
-  <si>
-    <t>파워프로 ZB3424BL</t>
-  </si>
-  <si>
-    <t>DW200 플러스</t>
-  </si>
-  <si>
-    <t>에르고라피도 플러스 ZB3106AK</t>
-  </si>
-  <si>
-    <t>프로</t>
-  </si>
-  <si>
-    <t>ZB3311</t>
-  </si>
-  <si>
-    <t>파워스틱 VS03R6523J2</t>
-  </si>
-  <si>
-    <t>UVC-1891P</t>
-  </si>
-  <si>
-    <t>VC-PS86</t>
-  </si>
-  <si>
-    <t>네오스틱 NEW T5</t>
-  </si>
-  <si>
-    <t>블랙라벨 UVC-1819B</t>
-  </si>
-  <si>
-    <t>DWM-HV74N</t>
-  </si>
-  <si>
-    <t>에어포스 익스트림 사일런스 TY8941</t>
-  </si>
-  <si>
-    <t>에어포스360 플랙스프로 TY9471KS</t>
-  </si>
-  <si>
-    <t>에어포스360 에센셜</t>
-  </si>
-  <si>
-    <t>VC7210</t>
-  </si>
-  <si>
-    <t>D-10</t>
-  </si>
-  <si>
-    <t>CV7</t>
-  </si>
-  <si>
-    <t>NEW X10</t>
-  </si>
-  <si>
-    <t>PD1420B</t>
-  </si>
-  <si>
-    <t>디어마 CM1900</t>
-  </si>
-  <si>
-    <t>CM-108S</t>
-  </si>
-  <si>
-    <t>오엘라 네오스핀 OBC-AW09WH</t>
-  </si>
-  <si>
-    <t>JBD-01B</t>
-  </si>
-  <si>
-    <t>에이스 프로</t>
-  </si>
-  <si>
-    <t>라이프 G2 GL-EH0009</t>
-  </si>
-  <si>
-    <t>에어포스360 플랙스프로 TY9474</t>
-  </si>
-  <si>
-    <t>ILVH-2000WG</t>
-  </si>
-  <si>
-    <t>SMA-X22</t>
-  </si>
-  <si>
-    <t>바로바로 MHC-601</t>
-  </si>
-  <si>
-    <t>디어마 VC20S</t>
-  </si>
-  <si>
-    <t>라피도 ZB6108</t>
-  </si>
-  <si>
-    <t>UVC-1688</t>
-  </si>
-  <si>
-    <t>에르고라피도 파워프로 ZB3411</t>
-  </si>
-  <si>
-    <t>DP-490VC</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6543KL</t>
-  </si>
-  <si>
-    <t>SMA-V200Z</t>
-  </si>
-  <si>
-    <t>VH-1600</t>
-  </si>
-  <si>
-    <t>SVC-1316R</t>
-  </si>
-  <si>
-    <t>DW200 프로</t>
-  </si>
-  <si>
-    <t>L-275</t>
-  </si>
-  <si>
-    <t>DCL180Z</t>
-  </si>
-  <si>
-    <t>VC-1201BL</t>
-  </si>
-  <si>
-    <t>DWVC-DC1630WS</t>
-  </si>
-  <si>
-    <t>V10 플러피 엑스트라</t>
-  </si>
-  <si>
-    <t>V10 플러피</t>
-  </si>
-  <si>
-    <t>AVG-TS8400B</t>
-  </si>
-  <si>
-    <t>맥스</t>
-  </si>
-  <si>
-    <t>CS1830B</t>
-  </si>
-  <si>
-    <t>네오스틱 T1</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-6BWF</t>
-  </si>
-  <si>
-    <t>에어슬림 SMA-BV2200</t>
-  </si>
-  <si>
-    <t>에르고라피도 ZB3324B</t>
-  </si>
-  <si>
-    <t>K-108L</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6051KW</t>
-  </si>
-  <si>
-    <t>X10</t>
-  </si>
-  <si>
-    <t>VC-LSS95</t>
-  </si>
-  <si>
-    <t>VC7211</t>
-  </si>
-  <si>
-    <t>2017-SC01</t>
-  </si>
-  <si>
-    <t>SVC-680G</t>
-  </si>
-  <si>
-    <t>V11 컴플리트 프로</t>
-  </si>
-  <si>
-    <t>V11 220 에어와트 CF+</t>
-  </si>
-  <si>
-    <t>파워스틱 VS60K6081KC</t>
-  </si>
-  <si>
-    <t>SVC-1019L</t>
-  </si>
-  <si>
-    <t>SCWXCQ01RR</t>
-  </si>
-  <si>
-    <t>SVC-ECO150</t>
-  </si>
-  <si>
-    <t>DWVC-H0256WS</t>
-  </si>
-  <si>
-    <t>VC-H60</t>
-  </si>
-  <si>
-    <t>CS1820T</t>
-  </si>
-  <si>
-    <t>Q10</t>
-  </si>
-  <si>
-    <t>AT-H12V</t>
-  </si>
-  <si>
-    <t>CX11</t>
-  </si>
-  <si>
-    <t>AST-015</t>
-  </si>
-  <si>
-    <t>SVC-8900SG</t>
-  </si>
-  <si>
-    <t>DVJ215B</t>
-  </si>
-  <si>
-    <t>SVC-S500YT</t>
-  </si>
-  <si>
-    <t>NKC-T77</t>
-  </si>
-  <si>
-    <t>코드제로 A9 A9579S+R9 R958DA</t>
-  </si>
-  <si>
-    <t>VC-H20</t>
-  </si>
-  <si>
-    <t>이지에 YE-01</t>
-  </si>
-  <si>
-    <t>SVC-DC2200SK</t>
-  </si>
-  <si>
-    <t>드리미 V8</t>
-  </si>
-  <si>
-    <t>ILVH-1000</t>
-  </si>
-  <si>
-    <t>에어포스 라이트 TY6545KL</t>
-  </si>
-  <si>
-    <t>SVC-650SG</t>
-  </si>
-  <si>
-    <t>슈퍼파워 프리플러스 V2 ARO-1300BL</t>
-  </si>
-  <si>
-    <t>DEX-EV675</t>
-  </si>
-  <si>
-    <t>AT-HC300</t>
-  </si>
-  <si>
-    <t>얼티메이트</t>
-  </si>
-  <si>
-    <t>V10 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>에코19 프로</t>
-  </si>
-  <si>
-    <t>GAS18V-LI</t>
-  </si>
-  <si>
-    <t>SVC-S48JP</t>
-  </si>
-  <si>
-    <t>TPV1820RAC</t>
-  </si>
-  <si>
-    <t>V11 토탈클린</t>
-  </si>
-  <si>
-    <t>오비큠</t>
-  </si>
-  <si>
-    <t>ASC-079</t>
-  </si>
-  <si>
-    <t>L-276</t>
-  </si>
-  <si>
-    <t>V11 앱솔루트 프로</t>
-  </si>
-  <si>
-    <t>PD1400</t>
-  </si>
-  <si>
-    <t>벨라</t>
-  </si>
-  <si>
-    <t>H-12</t>
-  </si>
-  <si>
-    <t>GWELL-502</t>
-  </si>
-  <si>
-    <t>V7 트리거 프로</t>
-  </si>
-  <si>
-    <t>GAS10.8V-LI</t>
-  </si>
-  <si>
-    <t>CVC-LH602W</t>
-  </si>
-  <si>
-    <t>RPC-100</t>
-  </si>
-  <si>
-    <t>IA-I9V2</t>
-  </si>
-  <si>
-    <t>제트 VS20R9074S2</t>
-  </si>
-  <si>
-    <t>V008</t>
-  </si>
-  <si>
-    <t>에어포스 360 TY9037</t>
-  </si>
-  <si>
-    <t>코드제로 S73OW</t>
-  </si>
-  <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>LVC-2018</t>
-  </si>
-  <si>
-    <t>PV1420C</t>
-  </si>
-  <si>
-    <t>TMS-5000</t>
-  </si>
-  <si>
-    <t>BKV-642VL</t>
-  </si>
-  <si>
-    <t>SVC-P60DK</t>
-  </si>
-  <si>
-    <t>WD7201</t>
-  </si>
-  <si>
-    <t>AT-770</t>
-  </si>
-  <si>
-    <t>P20 MAX</t>
-  </si>
-  <si>
-    <t>NEW F7</t>
-  </si>
-  <si>
-    <t>SVC-S8000MJ</t>
-  </si>
-  <si>
-    <t>PHV1800CB</t>
-  </si>
-  <si>
-    <t>V10 플러스</t>
-  </si>
-  <si>
-    <t>퓨어 F9 PF91-5EBF</t>
-  </si>
-  <si>
-    <t>Q10 플러스</t>
+    <t>PD1810BEXT</t>
+  </si>
+  <si>
+    <t>UVC-1894</t>
+  </si>
+  <si>
+    <t>Y010</t>
+  </si>
+  <si>
+    <t>BR-SV380RC</t>
+  </si>
+  <si>
+    <t>VC-K2000</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1295,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1338,16 +1329,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D2">
-        <v>137700</v>
+        <v>173900</v>
       </c>
       <c r="E2">
         <v>60</v>
       </c>
       <c r="F2">
-        <v>120</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1358,16 +1349,16 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3">
+        <v>299000</v>
+      </c>
+      <c r="E3">
         <v>65</v>
       </c>
-      <c r="D3">
-        <v>775840</v>
-      </c>
-      <c r="E3">
-        <v>80</v>
-      </c>
       <c r="F3">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1375,13 +1366,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>981320</v>
+        <v>1005340</v>
       </c>
       <c r="E4">
         <v>80</v>
@@ -1395,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D5">
-        <v>183840</v>
+        <v>141000</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1415,19 +1406,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D6">
-        <v>918650</v>
+        <v>138800</v>
       </c>
       <c r="E6">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>140</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1435,19 +1426,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D7">
-        <v>840510</v>
+        <v>877880</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="F7">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1455,19 +1446,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D8">
-        <v>733660</v>
+        <v>955370</v>
       </c>
       <c r="E8">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F8">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1475,13 +1466,13 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>140690</v>
+        <v>128100</v>
       </c>
       <c r="E9">
         <v>42</v>
@@ -1492,19 +1483,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D10">
-        <v>629100</v>
+        <v>654100</v>
       </c>
       <c r="E10">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>160</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1512,19 +1503,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>909140</v>
+        <v>595810</v>
       </c>
       <c r="E11">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1532,16 +1523,19 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>648880</v>
+        <v>794690</v>
       </c>
       <c r="E12">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="F12">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1549,19 +1543,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>50610</v>
+        <v>600250</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>90</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1569,39 +1563,36 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D14">
-        <v>862980</v>
+        <v>512420</v>
       </c>
       <c r="E14">
         <v>60</v>
       </c>
-      <c r="F14">
-        <v>185</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D15">
-        <v>881300</v>
+        <v>222990</v>
       </c>
       <c r="E15">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1612,16 +1603,16 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D16">
-        <v>171580</v>
+        <v>940410</v>
       </c>
       <c r="E16">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F16">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1629,19 +1620,16 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D17">
-        <v>685710</v>
+        <v>595430</v>
       </c>
       <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1649,16 +1637,19 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>241860</v>
+        <v>918120</v>
       </c>
       <c r="E18">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="F18">
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1666,19 +1657,19 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>440270</v>
+        <v>40830</v>
       </c>
       <c r="E19">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1686,16 +1677,19 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>855310</v>
+        <v>248640</v>
       </c>
       <c r="E20">
-        <v>80</v>
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1703,19 +1697,19 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D21">
-        <v>218800</v>
+        <v>786520</v>
       </c>
       <c r="E21">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1726,16 +1720,16 @@
         <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22">
-        <v>192720</v>
+        <v>765270</v>
       </c>
       <c r="E22">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F22">
-        <v>250</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1746,13 +1740,16 @@
         <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D23">
-        <v>267550</v>
+        <v>413220</v>
       </c>
       <c r="E23">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1760,19 +1757,16 @@
         <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D24">
-        <v>50070</v>
+        <v>214250</v>
       </c>
       <c r="E24">
-        <v>35</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1780,19 +1774,19 @@
         <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D25">
-        <v>114670</v>
+        <v>404140</v>
       </c>
       <c r="E25">
         <v>40</v>
       </c>
       <c r="F25">
-        <v>120</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1800,19 +1794,19 @@
         <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D26">
-        <v>733230</v>
+        <v>138000</v>
       </c>
       <c r="E26">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F26">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1820,19 +1814,19 @@
         <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D27">
-        <v>995950</v>
+        <v>67040</v>
       </c>
       <c r="E27">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1840,19 +1834,16 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28">
-        <v>872780</v>
+        <v>325910</v>
       </c>
       <c r="E28">
-        <v>80</v>
-      </c>
-      <c r="F28">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1860,19 +1851,13 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29">
-        <v>1108950</v>
-      </c>
-      <c r="E29">
-        <v>80</v>
-      </c>
-      <c r="F29">
-        <v>140</v>
+        <v>22930</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1880,19 +1865,19 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D30">
-        <v>911810</v>
+        <v>753820</v>
       </c>
       <c r="E30">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F30">
-        <v>140</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1900,36 +1885,39 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D31">
-        <v>171690</v>
+        <v>68160</v>
       </c>
       <c r="E31">
         <v>45</v>
       </c>
+      <c r="F31">
+        <v>90</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D32">
-        <v>614680</v>
+        <v>316400</v>
       </c>
       <c r="E32">
         <v>40</v>
       </c>
       <c r="F32">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1937,19 +1925,16 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D33">
-        <v>993990</v>
+        <v>378590</v>
       </c>
       <c r="E33">
-        <v>80</v>
-      </c>
-      <c r="F33">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1957,19 +1942,16 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D34">
-        <v>329740</v>
+        <v>338270</v>
       </c>
       <c r="E34">
-        <v>40</v>
-      </c>
-      <c r="F34">
-        <v>130</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1977,19 +1959,16 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D35">
-        <v>525800</v>
+        <v>64900</v>
       </c>
       <c r="E35">
-        <v>40</v>
-      </c>
-      <c r="F35">
-        <v>155</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1997,16 +1976,16 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D36">
-        <v>159990</v>
+        <v>170720</v>
       </c>
       <c r="E36">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2014,16 +1993,16 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D37">
-        <v>34810</v>
+        <v>414080</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2034,16 +2013,13 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D38">
-        <v>193500</v>
+        <v>328630</v>
       </c>
       <c r="E38">
-        <v>40</v>
-      </c>
-      <c r="F38">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2051,19 +2027,19 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D39">
-        <v>158860</v>
+        <v>468920</v>
       </c>
       <c r="E39">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F39">
-        <v>220</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2071,19 +2047,19 @@
         <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D40">
-        <v>121400</v>
+        <v>171790</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40">
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2091,20 +2067,17 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D41">
-        <v>166470</v>
+        <v>124800</v>
       </c>
       <c r="E41">
         <v>30</v>
       </c>
-      <c r="F41">
-        <v>190</v>
-      </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
@@ -2114,16 +2087,13 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D42">
-        <v>674840</v>
+        <v>69180</v>
       </c>
       <c r="E42">
-        <v>60</v>
-      </c>
-      <c r="F42">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2131,19 +2101,16 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D43">
-        <v>475508</v>
+        <v>80580</v>
       </c>
       <c r="E43">
-        <v>40</v>
-      </c>
-      <c r="F43">
-        <v>155</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2154,16 +2121,16 @@
         <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D44">
-        <v>108980</v>
+        <v>161970</v>
       </c>
       <c r="E44">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F44">
-        <v>160</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2171,16 +2138,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D45">
-        <v>479000</v>
+        <v>132650</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2188,36 +2155,39 @@
         <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C46" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D46">
-        <v>243580</v>
+        <v>152090</v>
       </c>
       <c r="E46">
         <v>30</v>
       </c>
+      <c r="F46">
+        <v>190</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D47">
-        <v>157170</v>
+        <v>568920</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F47">
-        <v>190</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2225,16 +2195,19 @@
         <v>6</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D48">
-        <v>397720</v>
+        <v>973910</v>
       </c>
       <c r="E48">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="F48">
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2245,13 +2218,16 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D49">
-        <v>282710</v>
+        <v>845950</v>
       </c>
       <c r="E49">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F49">
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2259,16 +2235,19 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D50">
-        <v>53760</v>
+        <v>698900</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="F50">
+        <v>150</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2276,19 +2255,16 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D51">
-        <v>79100</v>
+        <v>44700</v>
       </c>
       <c r="E51">
-        <v>40</v>
-      </c>
-      <c r="F51">
-        <v>70</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2296,19 +2272,16 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D52">
-        <v>920000</v>
+        <v>103350</v>
       </c>
       <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2316,16 +2289,16 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D53">
-        <v>259000</v>
+        <v>454090</v>
       </c>
       <c r="E53">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2336,36 +2309,30 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D54">
-        <v>447710</v>
+        <v>156690</v>
       </c>
       <c r="E54">
         <v>40</v>
       </c>
-      <c r="F54">
-        <v>150</v>
-      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>6</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C55" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D55">
-        <v>622040</v>
+        <v>126500</v>
       </c>
       <c r="E55">
-        <v>40</v>
-      </c>
-      <c r="F55">
-        <v>155</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2373,16 +2340,19 @@
         <v>6</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D56">
-        <v>281060</v>
+        <v>149460</v>
+      </c>
+      <c r="E56">
+        <v>35</v>
       </c>
       <c r="F56">
-        <v>185</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2390,16 +2360,16 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>373150</v>
+        <v>33950</v>
       </c>
       <c r="E57">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2407,16 +2377,16 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D58">
-        <v>90860</v>
-      </c>
-      <c r="E58">
-        <v>13</v>
+        <v>36040</v>
+      </c>
+      <c r="F58">
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2424,19 +2394,19 @@
         <v>6</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C59" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D59">
-        <v>99900</v>
+        <v>86780</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2444,19 +2414,19 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D60">
-        <v>125100</v>
+        <v>104690</v>
       </c>
       <c r="E60">
         <v>40</v>
       </c>
       <c r="F60">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2464,19 +2434,16 @@
         <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C61" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D61">
-        <v>551200</v>
+        <v>329570</v>
       </c>
       <c r="E61">
-        <v>30</v>
-      </c>
-      <c r="F61">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2484,19 +2451,19 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D62">
-        <v>794970</v>
+        <v>118000</v>
       </c>
       <c r="E62">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F62">
-        <v>185</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2504,16 +2471,16 @@
         <v>6</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D63">
-        <v>155810</v>
+        <v>259000</v>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2521,19 +2488,16 @@
         <v>6</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D64">
-        <v>239000</v>
+        <v>39200</v>
       </c>
       <c r="E64">
-        <v>50</v>
-      </c>
-      <c r="F64">
-        <v>250</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2541,19 +2505,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D65">
-        <v>883600</v>
+        <v>486360</v>
       </c>
       <c r="E65">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F65">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2561,16 +2525,16 @@
         <v>6</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D66">
-        <v>73640</v>
+        <v>296800</v>
       </c>
       <c r="F66">
-        <v>70</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2578,19 +2542,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D67">
-        <v>78830</v>
+        <v>159000</v>
       </c>
       <c r="E67">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F67">
-        <v>35</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2601,13 +2565,16 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D68">
-        <v>368800</v>
+        <v>572460</v>
       </c>
       <c r="E68">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F68">
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2615,16 +2582,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D69">
-        <v>48660</v>
+        <v>925860</v>
       </c>
       <c r="E69">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="F69">
+        <v>140</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2635,13 +2605,16 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D70">
-        <v>348940</v>
+        <v>478050</v>
       </c>
       <c r="E70">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2649,19 +2622,16 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D71">
-        <v>500000</v>
-      </c>
-      <c r="E71">
-        <v>40</v>
+        <v>77560</v>
       </c>
       <c r="F71">
-        <v>150</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2669,16 +2639,16 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D72">
-        <v>404180</v>
+        <v>369220</v>
       </c>
       <c r="E72">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2686,16 +2656,19 @@
         <v>6</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D73">
-        <v>242310</v>
+        <v>563450</v>
       </c>
       <c r="E73">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F73">
+        <v>150</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2703,19 +2676,19 @@
         <v>6</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D74">
-        <v>749000</v>
+        <v>891920</v>
       </c>
       <c r="E74">
         <v>40</v>
       </c>
       <c r="F74">
-        <v>115</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2723,19 +2696,19 @@
         <v>6</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D75">
-        <v>690560</v>
+        <v>137160</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F75">
-        <v>155</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2743,19 +2716,19 @@
         <v>6</v>
       </c>
       <c r="B76" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D76">
-        <v>38690</v>
+        <v>1510190</v>
       </c>
       <c r="E76">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2763,19 +2736,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D77">
-        <v>517880</v>
+        <v>257600</v>
       </c>
       <c r="E77">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F77">
-        <v>100</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2783,19 +2756,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D78">
-        <v>1097990</v>
+        <v>870910</v>
       </c>
       <c r="E78">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F78">
-        <v>115</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2803,19 +2776,19 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C79" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D79">
-        <v>1000000</v>
+        <v>75200</v>
       </c>
       <c r="E79">
         <v>40</v>
       </c>
       <c r="F79">
-        <v>115</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2823,19 +2796,16 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D80">
-        <v>196000</v>
+        <v>250050</v>
       </c>
       <c r="E80">
-        <v>30</v>
-      </c>
-      <c r="F80">
-        <v>190</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2846,13 +2816,16 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D81">
-        <v>385470</v>
+        <v>535110</v>
       </c>
       <c r="E81">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F81">
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2860,16 +2833,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D82">
-        <v>650360</v>
+        <v>982970</v>
       </c>
       <c r="E82">
-        <v>60</v>
+        <v>40</v>
+      </c>
+      <c r="F82">
+        <v>140</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2877,19 +2853,19 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D83">
-        <v>146830</v>
+        <v>1097990</v>
       </c>
       <c r="E83">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2897,19 +2873,19 @@
         <v>6</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D84">
-        <v>119700</v>
+        <v>667780</v>
       </c>
       <c r="E84">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F84">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2917,16 +2893,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D85">
-        <v>81440</v>
+        <v>135000</v>
       </c>
       <c r="E85">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <v>170</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2937,13 +2916,16 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D86">
-        <v>234753</v>
+        <v>729850</v>
       </c>
       <c r="E86">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="F86">
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2951,16 +2933,19 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D87">
-        <v>56100</v>
+        <v>999990</v>
       </c>
       <c r="E87">
-        <v>42</v>
+        <v>80</v>
+      </c>
+      <c r="F87">
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2968,19 +2953,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C88" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D88">
-        <v>172030</v>
+        <v>548610</v>
       </c>
       <c r="E88">
-        <v>35</v>
-      </c>
-      <c r="F88">
-        <v>220</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2988,19 +2970,19 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D89">
-        <v>33010</v>
+        <v>889990</v>
       </c>
       <c r="E89">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F89">
-        <v>60</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3008,19 +2990,19 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D90">
-        <v>218000</v>
+        <v>891030</v>
       </c>
       <c r="E90">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F90">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -3028,16 +3010,19 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D91">
-        <v>40800</v>
+        <v>1045700</v>
       </c>
       <c r="E91">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="F91">
+        <v>115</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3045,19 +3030,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D92">
-        <v>84200</v>
+        <v>294000</v>
       </c>
       <c r="E92">
-        <v>45</v>
-      </c>
-      <c r="F92">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3065,33 +3047,39 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D93">
-        <v>208420</v>
+        <v>128990</v>
       </c>
       <c r="E93">
         <v>30</v>
       </c>
+      <c r="F93">
+        <v>190</v>
+      </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D94">
-        <v>35440</v>
+        <v>648830</v>
       </c>
       <c r="E94">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F94">
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3099,16 +3087,16 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D95">
-        <v>485960</v>
+        <v>103630</v>
       </c>
       <c r="E95">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3116,16 +3104,19 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D96">
-        <v>81660</v>
+        <v>85310</v>
       </c>
       <c r="E96">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F96">
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3133,19 +3124,19 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D97">
-        <v>744830</v>
+        <v>835410</v>
       </c>
       <c r="E97">
         <v>60</v>
       </c>
       <c r="F97">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3153,13 +3144,19 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D98">
-        <v>17900</v>
+        <v>695630</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
+      </c>
+      <c r="F98">
+        <v>150</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3167,19 +3164,16 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D99">
-        <v>398000</v>
+        <v>390510</v>
       </c>
       <c r="E99">
-        <v>30</v>
-      </c>
-      <c r="F99">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3187,19 +3181,13 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D100">
-        <v>725600</v>
-      </c>
-      <c r="E100">
-        <v>60</v>
-      </c>
-      <c r="F100">
-        <v>200</v>
+        <v>77520</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3207,19 +3195,16 @@
         <v>6</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D101">
-        <v>708990</v>
-      </c>
-      <c r="E101">
-        <v>40</v>
+        <v>94370</v>
       </c>
       <c r="F101">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3227,19 +3212,16 @@
         <v>6</v>
       </c>
       <c r="B102" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C102" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D102">
-        <v>87120</v>
+        <v>28520</v>
       </c>
       <c r="E102">
-        <v>12</v>
-      </c>
-      <c r="F102">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3247,16 +3229,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D103">
-        <v>440010</v>
+        <v>105840</v>
       </c>
       <c r="E103">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="F103">
+        <v>170</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3264,16 +3249,13 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D104">
-        <v>329490</v>
-      </c>
-      <c r="E104">
-        <v>30</v>
+        <v>82550</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3281,16 +3263,16 @@
         <v>6</v>
       </c>
       <c r="B105" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D105">
-        <v>79000</v>
+        <v>336500</v>
       </c>
       <c r="E105">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3298,16 +3280,16 @@
         <v>6</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D106">
-        <v>462150</v>
+        <v>23500</v>
       </c>
       <c r="E106">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3315,19 +3297,19 @@
         <v>6</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D107">
-        <v>727660</v>
+        <v>35070</v>
       </c>
       <c r="E107">
+        <v>9</v>
+      </c>
+      <c r="F107">
         <v>60</v>
-      </c>
-      <c r="F107">
-        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3335,13 +3317,19 @@
         <v>6</v>
       </c>
       <c r="B108" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D108">
-        <v>26800</v>
+        <v>294000</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
+      </c>
+      <c r="F108">
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3349,19 +3337,19 @@
         <v>6</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D109">
-        <v>341480</v>
+        <v>69000</v>
       </c>
       <c r="E109">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F109">
-        <v>235</v>
+        <v>45</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3369,13 +3357,13 @@
         <v>6</v>
       </c>
       <c r="B110" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D110">
-        <v>24130</v>
+        <v>24010</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,19 +3371,19 @@
         <v>6</v>
       </c>
       <c r="B111" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C111" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D111">
-        <v>145050</v>
+        <v>931100</v>
       </c>
       <c r="E111">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F111">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3403,19 +3391,19 @@
         <v>6</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C112" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D112">
-        <v>155480</v>
+        <v>531380</v>
       </c>
       <c r="E112">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F112">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3423,16 +3411,19 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D113">
-        <v>245210</v>
+        <v>845990</v>
       </c>
       <c r="E113">
-        <v>48</v>
+        <v>120</v>
+      </c>
+      <c r="F113">
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3440,16 +3431,16 @@
         <v>6</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D114">
-        <v>113050</v>
+        <v>355740</v>
       </c>
       <c r="E114">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3457,13 +3448,19 @@
         <v>6</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C115" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D115">
-        <v>177300</v>
+        <v>386420</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
+      </c>
+      <c r="F115">
+        <v>150</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3471,19 +3468,16 @@
         <v>6</v>
       </c>
       <c r="B116" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C116" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D116">
-        <v>267420</v>
+        <v>607390</v>
       </c>
       <c r="E116">
-        <v>35</v>
-      </c>
-      <c r="F116">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3491,19 +3485,16 @@
         <v>6</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D117">
-        <v>99000</v>
+        <v>186580</v>
       </c>
       <c r="E117">
-        <v>40</v>
-      </c>
-      <c r="F117">
-        <v>180</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3511,19 +3502,19 @@
         <v>6</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C118" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D118">
-        <v>173880</v>
+        <v>613290</v>
       </c>
       <c r="E118">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F118">
-        <v>220</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3531,16 +3522,16 @@
         <v>6</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C119" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D119">
-        <v>50790</v>
+        <v>132370</v>
       </c>
       <c r="E119">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3548,19 +3539,19 @@
         <v>6</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D120">
-        <v>169550</v>
+        <v>725880</v>
       </c>
       <c r="E120">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F120">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3568,19 +3559,16 @@
         <v>6</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D121">
-        <v>69000</v>
+        <v>324280</v>
       </c>
       <c r="E121">
-        <v>25</v>
-      </c>
-      <c r="F121">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3588,19 +3576,19 @@
         <v>6</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C122" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D122">
-        <v>1015550</v>
+        <v>149570</v>
       </c>
       <c r="E122">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="F122">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3608,16 +3596,19 @@
         <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D123">
-        <v>339700</v>
+        <v>216720</v>
       </c>
       <c r="E123">
-        <v>48</v>
+        <v>60</v>
+      </c>
+      <c r="F123">
+        <v>200</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3625,19 +3616,16 @@
         <v>6</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C124" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D124">
-        <v>110660</v>
+        <v>571810</v>
       </c>
       <c r="E124">
-        <v>35</v>
-      </c>
-      <c r="F124">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3645,16 +3633,16 @@
         <v>6</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C125" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D125">
-        <v>144190</v>
+        <v>231400</v>
       </c>
       <c r="E125">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3662,19 +3650,19 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D126">
-        <v>90090</v>
+        <v>219000</v>
       </c>
       <c r="E126">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F126">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3682,16 +3670,19 @@
         <v>6</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D127">
-        <v>186990</v>
+        <v>60560</v>
       </c>
       <c r="E127">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F127">
+        <v>55</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3699,13 +3690,16 @@
         <v>6</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D128">
-        <v>306410</v>
+        <v>559870</v>
+      </c>
+      <c r="E128">
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3713,13 +3707,19 @@
         <v>6</v>
       </c>
       <c r="B129" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D129">
-        <v>72490</v>
+        <v>259000</v>
+      </c>
+      <c r="E129">
+        <v>50</v>
+      </c>
+      <c r="F129">
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3727,16 +3727,19 @@
         <v>6</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D130">
-        <v>68800</v>
+        <v>114840</v>
       </c>
       <c r="E130">
-        <v>15</v>
+        <v>40</v>
+      </c>
+      <c r="F130">
+        <v>200</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3744,19 +3747,19 @@
         <v>6</v>
       </c>
       <c r="B131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D131">
-        <v>174970</v>
+        <v>94910</v>
       </c>
       <c r="E131">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F131">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3764,13 +3767,19 @@
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D132">
-        <v>69790</v>
+        <v>53790</v>
+      </c>
+      <c r="E132">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3778,16 +3787,16 @@
         <v>6</v>
       </c>
       <c r="B133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D133">
-        <v>35370</v>
+        <v>243850</v>
       </c>
       <c r="E133">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3795,16 +3804,19 @@
         <v>6</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D134">
-        <v>138960</v>
+        <v>171140</v>
       </c>
       <c r="E134">
-        <v>45</v>
+        <v>30</v>
+      </c>
+      <c r="F134">
+        <v>190</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3812,16 +3824,16 @@
         <v>6</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D135">
-        <v>483320</v>
+        <v>270180</v>
       </c>
       <c r="E135">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3829,16 +3841,19 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D136">
-        <v>220540</v>
+        <v>148990</v>
       </c>
       <c r="E136">
-        <v>28</v>
+        <v>60</v>
+      </c>
+      <c r="F136">
+        <v>200</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3846,13 +3861,19 @@
         <v>6</v>
       </c>
       <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137" t="s">
+        <v>202</v>
+      </c>
+      <c r="D137">
+        <v>77970</v>
+      </c>
+      <c r="E137">
+        <v>12</v>
+      </c>
+      <c r="F137">
         <v>35</v>
-      </c>
-      <c r="C137" t="s">
-        <v>199</v>
-      </c>
-      <c r="D137">
-        <v>36800</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3860,19 +3881,16 @@
         <v>6</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D138">
-        <v>158000</v>
+        <v>267100</v>
       </c>
       <c r="E138">
-        <v>35</v>
-      </c>
-      <c r="F138">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3883,16 +3901,13 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D139">
-        <v>129000</v>
+        <v>148730</v>
       </c>
       <c r="E139">
-        <v>28</v>
-      </c>
-      <c r="F139">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3900,19 +3915,13 @@
         <v>6</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D140">
-        <v>156000</v>
-      </c>
-      <c r="E140">
-        <v>35</v>
-      </c>
-      <c r="F140">
-        <v>120</v>
+        <v>18170</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3920,19 +3929,16 @@
         <v>6</v>
       </c>
       <c r="B141" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C141" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D141">
-        <v>89440</v>
+        <v>31090</v>
       </c>
       <c r="E141">
-        <v>11</v>
-      </c>
-      <c r="F141">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3940,19 +3946,19 @@
         <v>6</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D142">
-        <v>51890</v>
+        <v>179000</v>
       </c>
       <c r="E142">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F142">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3960,19 +3966,16 @@
         <v>6</v>
       </c>
       <c r="B143" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C143" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D143">
-        <v>42340</v>
+        <v>55760</v>
       </c>
       <c r="E143">
-        <v>15</v>
-      </c>
-      <c r="F143">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3980,16 +3983,19 @@
         <v>6</v>
       </c>
       <c r="B144" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C144" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D144">
-        <v>64900</v>
+        <v>118960</v>
       </c>
       <c r="E144">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="F144">
+        <v>220</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3997,19 +4003,19 @@
         <v>6</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D145">
-        <v>186120</v>
+        <v>236550</v>
       </c>
       <c r="E145">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F145">
-        <v>220</v>
+        <v>250</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4017,19 +4023,13 @@
         <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C146" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D146">
-        <v>79900</v>
-      </c>
-      <c r="E146">
-        <v>45</v>
-      </c>
-      <c r="F146">
-        <v>90</v>
+        <v>208720</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4037,16 +4037,13 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="C147" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D147">
-        <v>113490</v>
-      </c>
-      <c r="E147">
-        <v>35</v>
+        <v>36890</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4054,16 +4051,13 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C148" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D148">
-        <v>818970</v>
-      </c>
-      <c r="E148">
-        <v>35</v>
+        <v>17900</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4071,16 +4065,16 @@
         <v>6</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C149" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D149">
-        <v>32780</v>
+        <v>208900</v>
       </c>
       <c r="E149">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4088,19 +4082,16 @@
         <v>6</v>
       </c>
       <c r="B150" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C150" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D150">
-        <v>83610</v>
+        <v>227160</v>
       </c>
       <c r="E150">
-        <v>30</v>
-      </c>
-      <c r="F150">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4108,16 +4099,16 @@
         <v>6</v>
       </c>
       <c r="B151" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D151">
-        <v>23140</v>
+        <v>646070</v>
       </c>
       <c r="E151">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4125,19 +4116,16 @@
         <v>6</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C152" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D152">
-        <v>51570</v>
+        <v>500430</v>
       </c>
       <c r="E152">
-        <v>30</v>
-      </c>
-      <c r="F152">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4145,16 +4133,19 @@
         <v>6</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C153" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D153">
-        <v>78190</v>
+        <v>28620</v>
       </c>
       <c r="E153">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <v>20</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4162,13 +4153,19 @@
         <v>6</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D154">
-        <v>18540</v>
+        <v>178000</v>
+      </c>
+      <c r="E154">
+        <v>40</v>
+      </c>
+      <c r="F154">
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4176,16 +4173,16 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D155">
-        <v>247480</v>
+        <v>24740</v>
       </c>
       <c r="E155">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4193,13 +4190,16 @@
         <v>6</v>
       </c>
       <c r="B156" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C156" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D156">
-        <v>23900</v>
+        <v>252540</v>
+      </c>
+      <c r="E156">
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4207,16 +4207,19 @@
         <v>6</v>
       </c>
       <c r="B157" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D157">
-        <v>87400</v>
+        <v>371340</v>
       </c>
       <c r="E157">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F157">
+        <v>235</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4224,16 +4227,19 @@
         <v>6</v>
       </c>
       <c r="B158" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C158" t="s">
+        <v>223</v>
+      </c>
+      <c r="D158">
+        <v>173220</v>
+      </c>
+      <c r="E158">
+        <v>50</v>
+      </c>
+      <c r="F158">
         <v>220</v>
-      </c>
-      <c r="D158">
-        <v>103040</v>
-      </c>
-      <c r="E158">
-        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4241,19 +4247,19 @@
         <v>6</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C159" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D159">
-        <v>138330</v>
+        <v>77890</v>
       </c>
       <c r="E159">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F159">
-        <v>190</v>
+        <v>90</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4261,16 +4267,16 @@
         <v>6</v>
       </c>
       <c r="B160" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C160" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D160">
-        <v>28630</v>
+        <v>25070</v>
       </c>
       <c r="E160">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4278,19 +4284,19 @@
         <v>6</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C161" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D161">
-        <v>109700</v>
+        <v>99000</v>
       </c>
       <c r="E161">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F161">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4298,33 +4304,36 @@
         <v>6</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C162" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D162">
-        <v>119000</v>
+        <v>303050</v>
       </c>
       <c r="E162">
         <v>30</v>
       </c>
+      <c r="F162">
+        <v>100</v>
+      </c>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C163" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D163">
-        <v>37100</v>
+        <v>199090</v>
       </c>
       <c r="E163">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4332,13 +4341,16 @@
         <v>6</v>
       </c>
       <c r="B164" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C164" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="D164">
-        <v>184380</v>
+        <v>78100</v>
+      </c>
+      <c r="E164">
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4346,16 +4358,19 @@
         <v>6</v>
       </c>
       <c r="B165" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C165" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D165">
-        <v>58500</v>
+        <v>20510</v>
       </c>
       <c r="E165">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="F165">
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4363,19 +4378,16 @@
         <v>6</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="C166" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D166">
-        <v>703350</v>
+        <v>128990</v>
       </c>
       <c r="E166">
-        <v>60</v>
-      </c>
-      <c r="F166">
-        <v>160</v>
+        <v>40</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4383,16 +4395,19 @@
         <v>6</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C167" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D167">
-        <v>647100</v>
+        <v>244470</v>
       </c>
       <c r="E167">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="F167">
+        <v>250</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4400,19 +4415,19 @@
         <v>6</v>
       </c>
       <c r="B168" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D168">
-        <v>146270</v>
+        <v>860660</v>
       </c>
       <c r="E168">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F168">
-        <v>170</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4420,19 +4435,16 @@
         <v>6</v>
       </c>
       <c r="B169" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C169" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D169">
-        <v>128990</v>
+        <v>120140</v>
       </c>
       <c r="E169">
-        <v>40</v>
-      </c>
-      <c r="F169">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4440,13 +4452,13 @@
         <v>6</v>
       </c>
       <c r="B170" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C170" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D170">
-        <v>142640</v>
+        <v>284970</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4454,16 +4466,19 @@
         <v>6</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C171" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D171">
-        <v>118900</v>
+        <v>168990</v>
       </c>
       <c r="E171">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="F171">
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4471,16 +4486,16 @@
         <v>6</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C172" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D172">
-        <v>469300</v>
+        <v>56780</v>
       </c>
       <c r="E172">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4488,19 +4503,19 @@
         <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C173" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D173">
-        <v>631360</v>
+        <v>88800</v>
       </c>
       <c r="E173">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F173">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4508,16 +4523,16 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C174" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D174">
-        <v>278990</v>
+        <v>355320</v>
       </c>
       <c r="E174">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4525,15 +4540,18 @@
         <v>6</v>
       </c>
       <c r="B175" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C175" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D175">
-        <v>47160</v>
+        <v>121260</v>
       </c>
       <c r="E175">
+        <v>40</v>
+      </c>
+      <c r="F175">
         <v>120</v>
       </c>
     </row>
@@ -4542,16 +4560,13 @@
         <v>6</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D176">
-        <v>229000</v>
-      </c>
-      <c r="E176">
-        <v>60</v>
+        <v>28480</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4559,19 +4574,16 @@
         <v>6</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C177" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D177">
-        <v>144900</v>
-      </c>
-      <c r="E177">
-        <v>35</v>
+        <v>200790</v>
       </c>
       <c r="F177">
-        <v>120</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4579,16 +4591,19 @@
         <v>6</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D178">
-        <v>107800</v>
+        <v>133150</v>
       </c>
       <c r="E178">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="F178">
+        <v>120</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4596,16 +4611,13 @@
         <v>6</v>
       </c>
       <c r="B179" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D179">
-        <v>38190</v>
-      </c>
-      <c r="F179">
-        <v>35</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4613,16 +4625,16 @@
         <v>6</v>
       </c>
       <c r="B180" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C180" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D180">
-        <v>30370</v>
+        <v>78930</v>
       </c>
       <c r="E180">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4630,16 +4642,16 @@
         <v>6</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C181" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D181">
-        <v>25990</v>
+        <v>434550</v>
       </c>
       <c r="E181">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4647,16 +4659,19 @@
         <v>6</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C182" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D182">
-        <v>992970</v>
+        <v>99000</v>
       </c>
       <c r="E182">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="F182">
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4664,19 +4679,16 @@
         <v>6</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D183">
-        <v>1122290</v>
+        <v>28790</v>
       </c>
       <c r="E183">
-        <v>60</v>
-      </c>
-      <c r="F183">
-        <v>220</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4684,16 +4696,16 @@
         <v>6</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C184" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D184">
-        <v>263000</v>
+        <v>90650</v>
       </c>
       <c r="E184">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4701,19 +4713,16 @@
         <v>6</v>
       </c>
       <c r="B185" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C185" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D185">
-        <v>72990</v>
+        <v>508720</v>
       </c>
       <c r="E185">
-        <v>20</v>
-      </c>
-      <c r="F185">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4721,19 +4730,16 @@
         <v>6</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C186" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D186">
-        <v>178490</v>
+        <v>721460</v>
       </c>
       <c r="E186">
-        <v>30</v>
-      </c>
-      <c r="F186">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4741,19 +4747,16 @@
         <v>6</v>
       </c>
       <c r="B187" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C187" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D187">
-        <v>109550</v>
+        <v>112490</v>
       </c>
       <c r="E187">
-        <v>20</v>
-      </c>
-      <c r="F187">
-        <v>150</v>
+        <v>30</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4761,16 +4764,16 @@
         <v>6</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D188">
-        <v>70900</v>
+        <v>88990</v>
       </c>
       <c r="E188">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4778,13 +4781,19 @@
         <v>6</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C189" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D189">
-        <v>25000</v>
+        <v>660370</v>
+      </c>
+      <c r="E189">
+        <v>30</v>
+      </c>
+      <c r="F189">
+        <v>170</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4792,16 +4801,19 @@
         <v>6</v>
       </c>
       <c r="B190" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C190" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D190">
-        <v>132560</v>
+        <v>728560</v>
+      </c>
+      <c r="E190">
+        <v>40</v>
       </c>
       <c r="F190">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4809,16 +4821,16 @@
         <v>6</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C191" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D191">
-        <v>216570</v>
+        <v>98900</v>
       </c>
       <c r="E191">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4826,39 +4838,33 @@
         <v>6</v>
       </c>
       <c r="B192" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C192" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D192">
-        <v>21210</v>
+        <v>74150</v>
       </c>
       <c r="E192">
         <v>20</v>
       </c>
-      <c r="F192">
-        <v>90</v>
-      </c>
     </row>
     <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>6</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C193" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D193">
-        <v>182950</v>
+        <v>49900</v>
       </c>
       <c r="E193">
-        <v>60</v>
-      </c>
-      <c r="F193">
-        <v>200</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4866,16 +4872,16 @@
         <v>6</v>
       </c>
       <c r="B194" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C194" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D194">
-        <v>117880</v>
+        <v>232500</v>
       </c>
       <c r="E194">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4883,19 +4889,13 @@
         <v>6</v>
       </c>
       <c r="B195" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C195" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D195">
-        <v>33070</v>
-      </c>
-      <c r="E195">
-        <v>10</v>
-      </c>
-      <c r="F195">
-        <v>62</v>
+        <v>4230</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4903,15 +4903,15 @@
         <v>6</v>
       </c>
       <c r="B196" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C196" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D196">
-        <v>56460</v>
-      </c>
-      <c r="F196">
+        <v>61110</v>
+      </c>
+      <c r="E196">
         <v>11</v>
       </c>
     </row>
@@ -4920,19 +4920,19 @@
         <v>6</v>
       </c>
       <c r="B197" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C197" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D197">
-        <v>33840</v>
+        <v>169340</v>
       </c>
       <c r="E197">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="F197">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4940,13 +4940,16 @@
         <v>6</v>
       </c>
       <c r="B198" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C198" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D198">
-        <v>31220</v>
+        <v>246670</v>
+      </c>
+      <c r="E198">
+        <v>60</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4954,19 +4957,19 @@
         <v>6</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="C199" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D199">
-        <v>2198400</v>
+        <v>214690</v>
       </c>
       <c r="E199">
-        <v>90</v>
+        <v>34</v>
       </c>
       <c r="F199">
-        <v>140</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4974,16 +4977,19 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C200" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D200">
-        <v>39030</v>
+        <v>257100</v>
       </c>
       <c r="E200">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="F200">
+        <v>250</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4991,16 +4997,16 @@
         <v>6</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C201" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D201">
-        <v>19300</v>
+        <v>549990</v>
       </c>
       <c r="E201">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5008,16 +5014,13 @@
         <v>6</v>
       </c>
       <c r="B202" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C202" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D202">
-        <v>106340</v>
-      </c>
-      <c r="E202">
-        <v>35</v>
+        <v>29350</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5025,19 +5028,16 @@
         <v>6</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C203" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D203">
-        <v>109350</v>
+        <v>519100</v>
       </c>
       <c r="E203">
-        <v>45</v>
-      </c>
-      <c r="F203">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5045,16 +5045,19 @@
         <v>6</v>
       </c>
       <c r="B204" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D204">
-        <v>28110</v>
+        <v>171500</v>
       </c>
       <c r="E204">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="F204">
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5062,16 +5065,19 @@
         <v>6</v>
       </c>
       <c r="B205" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C205" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D205">
-        <v>89650</v>
+        <v>53000</v>
       </c>
       <c r="E205">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F205">
+        <v>75</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5079,16 +5085,16 @@
         <v>6</v>
       </c>
       <c r="B206" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C206" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D206">
-        <v>33290</v>
-      </c>
-      <c r="F206">
-        <v>35</v>
+        <v>194370</v>
+      </c>
+      <c r="E206">
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5096,16 +5102,19 @@
         <v>6</v>
       </c>
       <c r="B207" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D207">
-        <v>235550</v>
+        <v>154230</v>
       </c>
       <c r="E207">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="F207">
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5113,33 +5122,33 @@
         <v>6</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C208" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D208">
-        <v>120850</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>40</v>
       </c>
+      <c r="F208">
+        <v>90</v>
+      </c>
     </row>
     <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>6</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C209" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D209">
-        <v>37890</v>
-      </c>
-      <c r="E209">
-        <v>60</v>
+        <v>74220</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5147,19 +5156,16 @@
         <v>6</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C210" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D210">
-        <v>69800</v>
+        <v>118890</v>
       </c>
       <c r="E210">
-        <v>40</v>
-      </c>
-      <c r="F210">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5167,16 +5173,16 @@
         <v>6</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C211" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D211">
-        <v>726180</v>
+        <v>93740</v>
       </c>
       <c r="E211">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5184,19 +5190,16 @@
         <v>6</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="C212" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D212">
-        <v>163800</v>
-      </c>
-      <c r="E212">
-        <v>35</v>
+        <v>29940</v>
       </c>
       <c r="F212">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5204,13 +5207,16 @@
         <v>6</v>
       </c>
       <c r="B213" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C213" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D213">
-        <v>211650</v>
+        <v>360090</v>
+      </c>
+      <c r="E213">
+        <v>55</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5221,16 +5227,13 @@
         <v>22</v>
       </c>
       <c r="C214" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D214">
-        <v>27080</v>
+        <v>265310</v>
       </c>
       <c r="E214">
-        <v>8</v>
-      </c>
-      <c r="F214">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5238,16 +5241,16 @@
         <v>6</v>
       </c>
       <c r="B215" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D215">
-        <v>69200</v>
+        <v>0</v>
       </c>
       <c r="E215">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5255,19 +5258,16 @@
         <v>6</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C216" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D216">
-        <v>1139000</v>
+        <v>387930</v>
       </c>
       <c r="E216">
-        <v>60</v>
-      </c>
-      <c r="F216">
-        <v>185</v>
+        <v>55</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5275,16 +5275,16 @@
         <v>6</v>
       </c>
       <c r="B217" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="C217" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D217">
-        <v>257700</v>
+        <v>283850</v>
       </c>
       <c r="E217">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5292,13 +5292,16 @@
         <v>6</v>
       </c>
       <c r="B218" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C218" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D218">
-        <v>59550</v>
+        <v>119910</v>
+      </c>
+      <c r="E218">
+        <v>30</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5306,16 +5309,19 @@
         <v>6</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C219" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D219">
-        <v>79000</v>
+        <v>26290</v>
       </c>
       <c r="E219">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="F219">
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5323,16 +5329,19 @@
         <v>6</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C220" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D220">
-        <v>1622400</v>
+        <v>158860</v>
       </c>
       <c r="E220">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="F220">
+        <v>200</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5340,16 +5349,16 @@
         <v>6</v>
       </c>
       <c r="B221" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C221" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D221">
-        <v>78940</v>
+        <v>114850</v>
       </c>
       <c r="E221">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5357,16 +5366,16 @@
         <v>6</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C222" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D222">
-        <v>48400</v>
+        <v>45280</v>
       </c>
       <c r="E222">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5374,13 +5383,16 @@
         <v>6</v>
       </c>
       <c r="B223" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C223" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D223">
-        <v>30010</v>
+        <v>32310</v>
+      </c>
+      <c r="E223">
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5388,16 +5400,16 @@
         <v>6</v>
       </c>
       <c r="B224" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C224" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D224">
-        <v>78900</v>
+        <v>195020</v>
       </c>
       <c r="E224">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5405,36 +5417,30 @@
         <v>6</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C225" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D225">
-        <v>419900</v>
+        <v>76130</v>
       </c>
       <c r="E225">
         <v>30</v>
       </c>
-      <c r="F225">
-        <v>100</v>
-      </c>
     </row>
     <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>6</v>
       </c>
       <c r="B226" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="C226" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D226">
-        <v>38880</v>
-      </c>
-      <c r="E226">
-        <v>7</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5442,16 +5448,19 @@
         <v>6</v>
       </c>
       <c r="B227" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="C227" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D227">
-        <v>33360</v>
+        <v>173630</v>
       </c>
       <c r="E227">
-        <v>15</v>
+        <v>30</v>
+      </c>
+      <c r="F227">
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5459,16 +5468,19 @@
         <v>6</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C228" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D228">
-        <v>362700</v>
+        <v>430610</v>
       </c>
       <c r="E228">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="F228">
+        <v>100</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5476,16 +5488,19 @@
         <v>6</v>
       </c>
       <c r="B229" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="C229" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D229">
-        <v>96030</v>
+        <v>117730</v>
       </c>
       <c r="E229">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="F229">
+        <v>120</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5493,19 +5508,19 @@
         <v>6</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C230" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D230">
-        <v>1036970</v>
+        <v>139000</v>
       </c>
       <c r="E230">
+        <v>30</v>
+      </c>
+      <c r="F230">
         <v>120</v>
-      </c>
-      <c r="F230">
-        <v>200</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5513,19 +5528,16 @@
         <v>6</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C231" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D231">
-        <v>85380</v>
+        <v>242590</v>
       </c>
       <c r="E231">
-        <v>45</v>
-      </c>
-      <c r="F231">
-        <v>90</v>
+        <v>42</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5533,13 +5545,16 @@
         <v>6</v>
       </c>
       <c r="B232" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="C232" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D232">
-        <v>238990</v>
+        <v>23890</v>
+      </c>
+      <c r="E232">
+        <v>60</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5547,15 +5562,18 @@
         <v>6</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C233" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D233">
-        <v>228540</v>
+        <v>101980</v>
       </c>
       <c r="E233">
+        <v>45</v>
+      </c>
+      <c r="F233">
         <v>70</v>
       </c>
     </row>
@@ -5564,19 +5582,13 @@
         <v>6</v>
       </c>
       <c r="B234" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C234" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D234">
-        <v>498240</v>
-      </c>
-      <c r="E234">
-        <v>35</v>
-      </c>
-      <c r="F234">
-        <v>200</v>
+        <v>37900</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5584,13 +5596,16 @@
         <v>6</v>
       </c>
       <c r="B235" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C235" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D235">
-        <v>34400</v>
+        <v>209280</v>
+      </c>
+      <c r="E235">
+        <v>40</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5598,16 +5613,16 @@
         <v>6</v>
       </c>
       <c r="B236" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C236" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D236">
-        <v>74030</v>
+        <v>238000</v>
       </c>
       <c r="E236">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5615,16 +5630,19 @@
         <v>6</v>
       </c>
       <c r="B237" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D237">
-        <v>89100</v>
+        <v>417540</v>
       </c>
       <c r="E237">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="F237">
+        <v>100</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5632,16 +5650,19 @@
         <v>6</v>
       </c>
       <c r="B238" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D238">
-        <v>33140</v>
+        <v>108000</v>
       </c>
       <c r="E238">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F238">
+        <v>25</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5649,19 +5670,13 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C239" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D239">
-        <v>208990</v>
-      </c>
-      <c r="E239">
-        <v>30</v>
-      </c>
-      <c r="F239">
-        <v>170</v>
+        <v>103480</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5669,16 +5684,16 @@
         <v>6</v>
       </c>
       <c r="B240" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C240" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D240">
-        <v>37800</v>
+        <v>237825</v>
       </c>
       <c r="E240">
-        <v>8</v>
+        <v>57</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5686,13 +5701,19 @@
         <v>6</v>
       </c>
       <c r="B241" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C241" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D241">
-        <v>39990</v>
+        <v>94050</v>
+      </c>
+      <c r="E241">
+        <v>40</v>
+      </c>
+      <c r="F241">
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5700,121 +5721,19 @@
         <v>6</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C242" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D242">
-        <v>114230</v>
+        <v>79900</v>
+      </c>
+      <c r="E242">
+        <v>60</v>
       </c>
       <c r="F242">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
-      <c r="A243" t="s">
-        <v>6</v>
-      </c>
-      <c r="B243" t="s">
-        <v>9</v>
-      </c>
-      <c r="C243" t="s">
-        <v>305</v>
-      </c>
-      <c r="D243">
-        <v>0</v>
-      </c>
-      <c r="E243">
-        <v>35</v>
-      </c>
-      <c r="F243">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
-      <c r="A244" t="s">
-        <v>6</v>
-      </c>
-      <c r="B244" t="s">
-        <v>22</v>
-      </c>
-      <c r="C244" t="s">
-        <v>306</v>
-      </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
-      <c r="A245" t="s">
-        <v>6</v>
-      </c>
-      <c r="B245" t="s">
-        <v>17</v>
-      </c>
-      <c r="C245" t="s">
-        <v>307</v>
-      </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
-      <c r="A246" t="s">
-        <v>6</v>
-      </c>
-      <c r="B246" t="s">
-        <v>63</v>
-      </c>
-      <c r="C246" t="s">
-        <v>308</v>
-      </c>
-      <c r="D246">
-        <v>127520</v>
-      </c>
-      <c r="E246">
-        <v>60</v>
-      </c>
-      <c r="F246">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
-      <c r="A247" t="s">
-        <v>6</v>
-      </c>
-      <c r="B247" t="s">
-        <v>12</v>
-      </c>
-      <c r="C247" t="s">
-        <v>309</v>
-      </c>
-      <c r="D247">
-        <v>387200</v>
-      </c>
-      <c r="E247">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
-      <c r="A248" t="s">
-        <v>6</v>
-      </c>
-      <c r="B248" t="s">
-        <v>9</v>
-      </c>
-      <c r="C248" t="s">
-        <v>310</v>
-      </c>
-      <c r="D248">
-        <v>216050</v>
-      </c>
-      <c r="E248">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
